--- a/Controller/controller_V3_matlab/customer_inputs.xlsx
+++ b/Controller/controller_V3_matlab/customer_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Documents\Purdue\Fall 2025\ME 463\ME-463-Can-Crusher\Controller\controller_V3_matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35527094-6D2B-4F7B-BE26-E8FD8D49A15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEBEAD1-58F2-494B-AA2E-297B21B00F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17964" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Inputs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Hold Time [s]</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Load Step Number</t>
-  </si>
-  <si>
-    <t>Start</t>
   </si>
   <si>
     <t>Check-out</t>
@@ -193,19 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,23 +534,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38EA12-ABC1-4B15-987D-30F0BE17A6DB}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -572,163 +565,121 @@
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3">
         <v>3000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3">
         <v>4600</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6">
         <v>120</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6">
         <v>120</v>
       </c>
-      <c r="F6" s="10">
+      <c r="E6">
         <v>60</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
+      <c r="C7" s="7">
         <v>30</v>
       </c>
-      <c r="E7" s="8">
+      <c r="D7" s="7">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="E7" s="7">
         <v>60</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Controller/controller_V3_matlab/customer_inputs.xlsx
+++ b/Controller/controller_V3_matlab/customer_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Documents\Purdue\Fall 2025\ME 463\ME-463-Can-Crusher\Controller\controller_V3_matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEBEAD1-58F2-494B-AA2E-297B21B00F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB08B8-CA21-4686-925F-0E17BAFD1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17964" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17964" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Inputs" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>120</v>

--- a/Controller/controller_V3_matlab/customer_inputs.xlsx
+++ b/Controller/controller_V3_matlab/customer_inputs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Documents\Purdue\Fall 2025\ME 463\ME-463-Can-Crusher\Controller\controller_V3_matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DB08B8-CA21-4686-925F-0E17BAFD1414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708552A-41BE-469C-B459-CD4CE2B0C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17964" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Inputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="50" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
